--- a/PM_29_12_2020/Progress Monitoring Kishoregonj/Package-22.xlsx
+++ b/PM_29_12_2020/Progress Monitoring Kishoregonj/Package-22.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office Work\Progress Monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\PM_29_12_2020\Progress Monitoring Kishoregonj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8460" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="PW-22" sheetId="1" r:id="rId1"/>
@@ -535,6 +535,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,32 +583,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,31 +607,16 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:W3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,32 +946,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
       <c r="O1" s="6"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -983,141 +983,141 @@
       <c r="W1" s="23"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="71" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="71" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="71" t="s">
+      <c r="I2" s="65"/>
+      <c r="J2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="71" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="71" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="67" t="s">
+      <c r="O2" s="65"/>
+      <c r="P2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="67" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="68"/>
-      <c r="T2" s="67" t="s">
+      <c r="S2" s="77"/>
+      <c r="T2" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="68"/>
-      <c r="V2" s="62" t="s">
+      <c r="U2" s="77"/>
+      <c r="V2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="62"/>
+      <c r="W2" s="71"/>
     </row>
     <row r="3" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="69">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="66">
         <v>1</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="69">
+      <c r="G3" s="67"/>
+      <c r="H3" s="66">
         <v>0.7</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="69">
+      <c r="I3" s="67"/>
+      <c r="J3" s="66">
         <v>1</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="69">
+      <c r="K3" s="67"/>
+      <c r="L3" s="66">
         <v>0.58399999999999996</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="69">
+      <c r="M3" s="67"/>
+      <c r="N3" s="66">
         <v>2.9</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="69">
+      <c r="O3" s="67"/>
+      <c r="P3" s="66">
         <v>1.4</v>
       </c>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="69">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="66">
         <v>1.9</v>
       </c>
-      <c r="S3" s="70"/>
-      <c r="T3" s="69">
+      <c r="S3" s="67"/>
+      <c r="T3" s="66">
         <v>1.7</v>
       </c>
-      <c r="U3" s="70"/>
-      <c r="V3" s="63">
+      <c r="U3" s="67"/>
+      <c r="V3" s="72">
         <v>0.439</v>
       </c>
-      <c r="W3" s="63"/>
+      <c r="W3" s="72"/>
       <c r="X3" s="9">
         <f>SUM(F3:V3)</f>
         <v>11.622999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="69">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="66">
         <v>14902.18</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="69">
+      <c r="G4" s="67"/>
+      <c r="H4" s="66">
         <v>23058.884999999998</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="69">
+      <c r="I4" s="67"/>
+      <c r="J4" s="66">
         <v>4822.2139999999999</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="69">
+      <c r="K4" s="67"/>
+      <c r="L4" s="66">
         <v>6670.125</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="69">
+      <c r="M4" s="67"/>
+      <c r="N4" s="66">
         <v>69778.751999999993</v>
       </c>
-      <c r="O4" s="70"/>
-      <c r="P4" s="69">
+      <c r="O4" s="67"/>
+      <c r="P4" s="66">
         <v>9766.8970000000008</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="69">
+      <c r="Q4" s="67"/>
+      <c r="R4" s="66">
         <v>1997.3889999999999</v>
       </c>
-      <c r="S4" s="70"/>
-      <c r="T4" s="69">
+      <c r="S4" s="67"/>
+      <c r="T4" s="66">
         <v>11989.433000000001</v>
       </c>
-      <c r="U4" s="70"/>
-      <c r="V4" s="63">
+      <c r="U4" s="67"/>
+      <c r="V4" s="72">
         <v>3655.5520000000001</v>
       </c>
-      <c r="W4" s="63"/>
+      <c r="W4" s="72"/>
       <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1787,11 +1787,11 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2401,26 +2401,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="V4:W4"/>
@@ -2437,6 +2417,26 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -2462,34 +2462,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="81" t="s">
         <v>22</v>
       </c>
@@ -2500,13 +2500,13 @@
       <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="81">
         <v>1.65</v>
       </c>
@@ -2521,21 +2521,21 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68">
         <v>49532.84</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="73">
+      <c r="G4" s="70"/>
+      <c r="H4" s="68">
         <v>292711.86499999999</v>
       </c>
-      <c r="I4" s="75"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2832,13 +2832,13 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="11"/>
       <c r="G13" s="33">
         <f>SUM(G6:G12)</f>
@@ -3150,6 +3150,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:E3"/>
@@ -3159,12 +3165,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -3175,7 +3175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -3196,34 +3196,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="81" t="s">
         <v>43</v>
       </c>
@@ -3240,72 +3240,72 @@
         <v>46</v>
       </c>
       <c r="M2" s="91"/>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="86"/>
+      <c r="O2" s="88"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="88">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="86">
         <v>3.99</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="88">
+      <c r="G3" s="87"/>
+      <c r="H3" s="86">
         <v>0.6</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="88">
+      <c r="I3" s="87"/>
+      <c r="J3" s="86">
         <v>3</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="88">
+      <c r="K3" s="87"/>
+      <c r="L3" s="86">
         <v>2.8</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="87">
+      <c r="M3" s="87"/>
+      <c r="N3" s="89">
         <v>0.36699999999999999</v>
       </c>
-      <c r="O3" s="87"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="55">
         <f>SUM(F3:N3)</f>
         <v>10.757000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68">
         <v>155824.79999999999</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="73">
+      <c r="G4" s="70"/>
+      <c r="H4" s="68">
         <v>16559.580000000002</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="73">
+      <c r="I4" s="70"/>
+      <c r="J4" s="68">
         <v>90975.58</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="73">
+      <c r="K4" s="70"/>
+      <c r="L4" s="68">
         <v>104525.74</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="77">
+      <c r="M4" s="70"/>
+      <c r="N4" s="63">
         <v>3872.29</v>
       </c>
-      <c r="O4" s="77"/>
+      <c r="O4" s="63"/>
     </row>
     <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -3313,34 +3313,34 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="O5" s="70" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3764,11 +3764,11 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
@@ -3799,13 +3799,13 @@
       <c r="P13" s="56"/>
     </row>
     <row r="14" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="33"/>
@@ -4252,20 +4252,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
@@ -4282,6 +4268,20 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
